--- a/student.xlsx
+++ b/student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98BB529-C726-4E06-B783-9454E18AE252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC952548-7B73-4844-8DAE-A510875DDE10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,46 @@
   </si>
   <si>
     <t>S2-B455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201900302022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201900302030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜九鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵嘉明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -433,51 +473,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.4140625" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="19.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -485,28 +526,28 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -514,29 +555,87 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/student.xlsx
+++ b/student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC952548-7B73-4844-8DAE-A510875DDE10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B774FB7-FB07-4615-B12E-1605B0C710D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,38 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201900161140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张文浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2-B516</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -638,6 +670,35 @@
         <v>31</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
